--- a/test/test_file_2.xlsx
+++ b/test/test_file_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/rmhamil_ucl_ac_uk/Documents/Absorption_lockin/20200922_50nm_AuNPs/660nm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{90E8820D-C4CC-4F44-8603-E5E2BD80D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82EEF9C-0BB2-46A0-9B28-B074F10579FD}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{90E8820D-C4CC-4F44-8603-E5E2BD80D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D50585D-1DD3-4870-91A3-3F5A772003F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FD2C609D-1063-4D92-BB57-573369685090}"/>
   </bookViews>
@@ -37,10 +37,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Concentration (aM)</t>
+    <t>Signal</t>
   </si>
   <si>
-    <t>Signal</t>
+    <t>Concentration (fM)</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,10 +406,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">

--- a/test/test_file_2.xlsx
+++ b/test/test_file_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/rmhamil_ucl_ac_uk/Documents/Absorption_lockin/20200922_50nm_AuNPs/660nm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{90E8820D-C4CC-4F44-8603-E5E2BD80D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D50585D-1DD3-4870-91A3-3F5A772003F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47347F68-EA5C-41AF-BDD9-7901343A3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FD2C609D-1063-4D92-BB57-573369685090}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>Signal</t>
   </si>
   <si>
-    <t>Concentration (fM)</t>
+    <t>Concentration (aM)</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D9C37-2A0F-442D-9D8E-B50268A461FF}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -404,7 +404,7 @@
     <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>-1.12E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>-5.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -460,299 +460,302 @@
         <v>-1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>104000</v>
+        <v>104000000</v>
       </c>
       <c r="B8">
         <v>1.3756999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f>A8/4</f>
-        <v>26000</v>
+        <v>26000000</v>
       </c>
       <c r="B9">
         <v>1.4189000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A18" si="0">A9/4</f>
-        <v>6500</v>
+        <v>6500000</v>
       </c>
       <c r="B10">
         <v>1.4228000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>1625000</v>
       </c>
       <c r="B11">
         <v>1.4830000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>406.25</v>
+        <v>406250</v>
       </c>
       <c r="B12">
         <v>1.4435</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>101.5625</v>
+        <v>101562.5</v>
       </c>
       <c r="B13">
         <v>1.0996999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>25.390625</v>
+        <v>25390.625</v>
       </c>
       <c r="B14">
         <v>0.55740000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>6.34765625</v>
+        <v>6347.65625</v>
       </c>
       <c r="B15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5869140625</v>
+        <v>1586.9140625</v>
       </c>
       <c r="B16">
         <v>5.4100000000000002E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.396728515625</v>
+        <v>396.728515625</v>
       </c>
       <c r="B17">
         <v>1.7899999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>9.918212890625E-2</v>
+        <v>99.18212890625</v>
       </c>
       <c r="B18">
         <v>-3.8399999999999997E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>104000</v>
+        <v>104000000</v>
       </c>
       <c r="B19">
         <v>1.4186000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <f>A19/4</f>
-        <v>26000</v>
+        <v>26000000</v>
       </c>
       <c r="B20">
         <v>1.3955</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:A29" si="1">A20/4</f>
-        <v>6500</v>
+        <v>6500000</v>
       </c>
       <c r="B21">
         <v>1.4341999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>1625</v>
+        <v>1625000</v>
       </c>
       <c r="B22">
         <v>1.4758</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>406.25</v>
+        <v>406250</v>
       </c>
       <c r="B23">
         <v>1.4205000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>101.5625</v>
+        <v>101562.5</v>
       </c>
       <c r="B24">
         <v>1.1994</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>25.390625</v>
+        <v>25390.625</v>
       </c>
       <c r="B25">
         <v>0.10539999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
-        <v>6.34765625</v>
+        <v>6347.65625</v>
       </c>
       <c r="B26">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5869140625</v>
+        <v>1586.9140625</v>
       </c>
       <c r="B27">
         <v>5.5999999999999999E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
-        <v>0.396728515625</v>
+        <v>396.728515625</v>
       </c>
       <c r="B28">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
-        <v>9.918212890625E-2</v>
+        <v>99.18212890625</v>
       </c>
       <c r="B29">
         <v>9.6199999999999994E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>104000</v>
+        <v>104000000</v>
       </c>
       <c r="B30">
         <v>1.3980999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <f>A30/4</f>
-        <v>26000</v>
+        <v>26000000</v>
       </c>
       <c r="B31">
         <v>1.3785000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <f t="shared" ref="A32:A40" si="2">A31/4</f>
-        <v>6500</v>
+        <v>6500000</v>
       </c>
       <c r="B32">
         <v>1.4197</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <f t="shared" si="2"/>
-        <v>1625</v>
+        <v>1625000</v>
       </c>
       <c r="B33">
         <v>1.486</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <f t="shared" si="2"/>
-        <v>406.25</v>
+        <v>406250</v>
       </c>
       <c r="B34">
         <v>1.2143999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <f t="shared" si="2"/>
-        <v>101.5625</v>
+        <v>101562.5</v>
       </c>
       <c r="B35">
         <v>0.93610000000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <f t="shared" si="2"/>
-        <v>25.390625</v>
+        <v>25390.625</v>
       </c>
       <c r="B36">
         <v>0.46829999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <f t="shared" si="2"/>
-        <v>6.34765625</v>
+        <v>6347.65625</v>
       </c>
       <c r="B37">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5869140625</v>
+        <v>1586.9140625</v>
       </c>
       <c r="B38">
         <v>5.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <f t="shared" si="2"/>
-        <v>0.396728515625</v>
+        <v>396.728515625</v>
       </c>
       <c r="B39">
         <v>-3.0700000000000002E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <f t="shared" si="2"/>
-        <v>9.918212890625E-2</v>
+        <v>99.18212890625</v>
       </c>
       <c r="B40">
         <v>7.7100000000000002E-2</v>
       </c>
+      <c r="C40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
